--- a/data/trans_dic/P14_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>23,17%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,6</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,86; 26,68</t>
+          <t>13,45; 27,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,07</t>
+          <t>0,67; 6,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,23; 34,39</t>
+          <t>20,81; 33,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,96</t>
+          <t>0,59; 3,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 28,18</t>
+          <t>18,71; 28,4</t>
         </is>
       </c>
     </row>
@@ -686,27 +687,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>25,49%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,03</t>
+          <t>0,49; 4,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 27,4</t>
+          <t>15,32; 27,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,27</t>
+          <t>1,34; 6,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,09; 36,72</t>
+          <t>24,86; 36,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,52</t>
+          <t>1,21; 4,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 29,79</t>
+          <t>21,25; 29,84</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>24,72%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,93</t>
+          <t>1,64; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 30,42</t>
+          <t>19,98; 30,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 12,25</t>
+          <t>1,99; 6,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 28,56</t>
+          <t>19,87; 28,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,9</t>
+          <t>2,37; 5,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,3; 28,09</t>
+          <t>21,58; 28,24</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,12</t>
+          <t>1,07; 5,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 25,88</t>
+          <t>17,24; 27,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,19</t>
+          <t>1,3; 5,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,02; 25,09</t>
+          <t>16,37; 24,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,27</t>
+          <t>1,61; 4,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,24</t>
+          <t>17,83; 24,59</t>
         </is>
       </c>
     </row>
@@ -926,27 +927,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,85</t>
+          <t>0,4; 4,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,02; 23,59</t>
+          <t>14,15; 23,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,3</t>
+          <t>2,19; 8,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 26,93</t>
+          <t>16,76; 26,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,38</t>
+          <t>1,54; 5,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,81; 24,02</t>
+          <t>16,5; 23,36</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,0</t>
+          <t>2,28; 9,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 18,79</t>
+          <t>7,44; 18,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,65</t>
+          <t>1,28; 11,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,39; 20,91</t>
+          <t>11,63; 20,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,52</t>
+          <t>2,54; 8,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 17,94</t>
+          <t>10,76; 17,74</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,37%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,73</t>
+          <t>1,77; 3,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,65; 22,21</t>
+          <t>18,06; 22,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,14</t>
+          <t>2,59; 5,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,77; 24,98</t>
+          <t>20,63; 24,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,95</t>
+          <t>2,43; 3,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,76; 22,95</t>
+          <t>19,98; 23,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5070</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103095</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11872</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>137620</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16941</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>240715</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25102</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70526; 144605</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3154; 29959</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>107142; 171598</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5687; 37974</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>194369; 295141</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10139</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>118084</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15401</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>155569</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25539</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>273654</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2836; 26701</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>86632; 155462</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6972; 34099</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>126303; 186298</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13209; 51539</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>228075; 320341</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24534</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>172635</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26992</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>173278</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51527</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>345914</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11277; 43467</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>136032; 210429</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14185; 47249</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>142786; 207331</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33145; 79215</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>301877; 395126</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16381</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>142837</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19769</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>136222</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36150</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>279060</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6949; 33164</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111351; 179172</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8890; 35268</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>109880; 167180</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21522; 57485</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>234842; 323857</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7125</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>92689</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23099</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>105748</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30225</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>198437</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1993; 19971</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71279; 118191</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11130; 45097</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>84312; 135334</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15502; 52461</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>166209; 235260</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>27015</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>63565</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29120</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>105992</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>56135</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>169557</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>12427; 49988</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>39376; 98323</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>9155; 80382</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>79832; 139519</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>32038; 104105</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>130869; 215709</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>90263</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>692907</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>126253</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>814430</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>216516</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1507336</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>60925; 128819</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>623022; 766465</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>93702; 182092</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>743036; 886313</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>171379; 280409</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1409020; 1621760</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>